--- a/src/test/resources/Exceldata/InputData.xlsx
+++ b/src/test/resources/Exceldata/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode </t>
+  </si>
+  <si>
+    <t>MedicineName</t>
+  </si>
+  <si>
+    <t>Paracip-650 Tablet</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Thenmozhi</t>
+  </si>
+  <si>
+    <t>Nagaiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOB</t>
+  </si>
+  <si>
+    <t>12345567</t>
   </si>
 </sst>
 </file>
@@ -54,14 +81,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -359,21 +396,54 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>6379948639</v>
+        <v>8778922710</v>
+      </c>
+      <c r="B2">
+        <v>600096</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38139</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>12345567</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Exceldata/InputData.xlsx
+++ b/src/test/resources/Exceldata/InputData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0124D322-8EA0-4FD1-B67C-9089A37D579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -51,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,14 +390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" customWidth="1"/>
@@ -401,7 +405,7 @@
     <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,12 +425,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>8778922710</v>
+        <v>6379948639</v>
       </c>
       <c r="B2">
-        <v>600096</v>
+        <v>600003</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -441,7 +445,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -452,24 +456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
